--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="tsukemono_projects_final_bot_ga" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="tsukemono_projects_final_bot_ga"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,7 +31,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Date(主要開発期間？)</t>
+    <t>Date</t>
   </si>
   <si>
     <t>ジャンル１</t>
@@ -799,22 +802,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF0000ff"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -822,46 +831,65 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -888,22 +916,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -915,153 +1003,193 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.5"/>
-    <col customWidth="1" min="12" max="12" width="20.38"/>
+    <col min="1" max="1" style="4" width="29.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="20.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,13 +1227,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1134,13 +1263,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1169,13 +1299,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1204,13 +1335,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1239,13 +1371,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1274,13 +1407,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
@@ -1309,13 +1443,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
         <v>59</v>
       </c>
@@ -1344,13 +1479,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
         <v>65</v>
       </c>
@@ -1379,7 +1515,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -1417,13 +1553,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
         <v>79</v>
       </c>
@@ -1452,10 +1589,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
         <v>87</v>
       </c>
@@ -1487,16 +1625,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
       <c r="A13" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="1" t="s">
         <v>95</v>
       </c>
@@ -1519,13 +1659,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
       <c r="A14" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="1" t="s">
         <v>98</v>
       </c>
@@ -1554,13 +1695,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
       <c r="A15" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="1" t="s">
         <v>103</v>
       </c>
@@ -1589,10 +1731,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
       <c r="A16" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
         <v>108</v>
       </c>
@@ -1624,13 +1767,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="120">
       <c r="A17" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="1" t="s">
         <v>114</v>
       </c>
@@ -1659,13 +1803,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
       <c r="A18" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="1" t="s">
         <v>120</v>
       </c>
@@ -1694,13 +1839,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="120">
       <c r="A19" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="1" t="s">
         <v>126</v>
       </c>
@@ -1729,7 +1875,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="180">
       <c r="A20" s="1" t="s">
         <v>129</v>
       </c>
@@ -1767,7 +1913,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="36">
       <c r="A21" s="1" t="s">
         <v>136</v>
       </c>
@@ -1805,22 +1951,25 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21">
       <c r="A22" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="1" t="s">
         <v>148</v>
       </c>
@@ -1834,13 +1983,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21">
       <c r="A23" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="1" t="s">
         <v>153</v>
       </c>
@@ -1853,6 +2003,7 @@
       <c r="G23" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="1" t="s">
         <v>156</v>
       </c>
@@ -1866,13 +2017,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="1" t="s">
         <v>159</v>
       </c>
@@ -1885,6 +2037,7 @@
       <c r="G24" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="H24" s="3"/>
       <c r="I24" s="1" t="s">
         <v>162</v>
       </c>
@@ -1898,16 +2051,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="1" t="s">
         <v>166</v>
       </c>
@@ -1930,16 +2085,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
         <v>171</v>
       </c>
@@ -1962,13 +2119,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="1" t="s">
         <v>174</v>
       </c>
@@ -1997,16 +2155,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="1" t="s">
         <v>179</v>
       </c>
@@ -2019,6 +2179,7 @@
       <c r="I28" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="J28" s="3"/>
       <c r="K28" s="1" t="s">
         <v>182</v>
       </c>
@@ -2026,22 +2187,25 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="H29" s="3"/>
       <c r="I29" s="1" t="s">
         <v>188</v>
       </c>
@@ -2055,13 +2219,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="1" t="s">
         <v>191</v>
       </c>
@@ -2074,6 +2239,7 @@
       <c r="G30" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="H30" s="3"/>
       <c r="I30" s="1" t="s">
         <v>194</v>
       </c>
@@ -2087,22 +2253,25 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="E31" s="3"/>
       <c r="F31" s="1" t="s">
         <v>193</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="1" t="s">
         <v>188</v>
       </c>
@@ -2116,22 +2285,25 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="1" t="s">
         <v>201</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="1" t="s">
         <v>188</v>
       </c>
@@ -2145,13 +2317,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="1" t="s">
         <v>204</v>
       </c>
@@ -2164,6 +2337,7 @@
       <c r="G33" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="1" t="s">
         <v>207</v>
       </c>
@@ -2177,13 +2351,14 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="1" t="s">
         <v>211</v>
       </c>
@@ -2199,6 +2374,7 @@
       <c r="H34" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="I34" s="3"/>
       <c r="J34" s="1" t="s">
         <v>214</v>
       </c>
@@ -2209,10 +2385,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="B35" s="3"/>
       <c r="C35" s="1" t="s">
         <v>217</v>
       </c>
@@ -2231,6 +2408,7 @@
       <c r="H35" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="I35" s="3"/>
       <c r="J35" s="1" t="s">
         <v>74</v>
       </c>
@@ -2241,10 +2419,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="B36" s="3"/>
       <c r="C36" s="1" t="s">
         <v>222</v>
       </c>
@@ -2263,6 +2442,7 @@
       <c r="H36" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="I36" s="3"/>
       <c r="J36" s="1" t="s">
         <v>74</v>
       </c>
@@ -2273,16 +2453,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="1" t="s">
         <v>229</v>
       </c>
@@ -2292,6 +2474,7 @@
       <c r="H37" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="I37" s="3"/>
       <c r="J37" s="1" t="s">
         <v>214</v>
       </c>
@@ -2302,16 +2485,18 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>231</v>
       </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="1" t="s">
         <v>232</v>
       </c>
+      <c r="E38" s="3"/>
       <c r="F38" s="1" t="s">
         <v>233</v>
       </c>
@@ -2321,6 +2506,7 @@
       <c r="H38" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="1" t="s">
         <v>214</v>
       </c>
@@ -2331,209 +2517,175 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
       <c r="G39" s="1" t="s">
         <v>237</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="I39" s="3"/>
       <c r="J39" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="40">
+      <c r="L39" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
       <c r="G40" s="1" t="s">
         <v>237</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="I40" s="3"/>
       <c r="J40" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="41">
+      <c r="L40" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B41" s="3"/>
       <c r="C41" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
       <c r="G41" s="1" t="s">
         <v>237</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="I41" s="3"/>
       <c r="J41" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="L41" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>244</v>
       </c>
+      <c r="C42" s="3"/>
       <c r="D42" s="1" t="s">
         <v>245</v>
       </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
       <c r="G42" s="1" t="s">
         <v>237</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="I42" s="3"/>
       <c r="J42" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="43">
+      <c r="L42" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="C43" s="3"/>
       <c r="D43" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
       <c r="G43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="I43" s="3"/>
       <c r="J43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="L43" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="C44" s="3"/>
       <c r="D44" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
       <c r="G44" s="1" t="s">
         <v>237</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="I44" s="3"/>
       <c r="J44" s="1" t="s">
         <v>237</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="L44" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="E2"/>
-    <hyperlink r:id="rId3" ref="E3"/>
-    <hyperlink r:id="rId4" ref="E4"/>
-    <hyperlink r:id="rId5" ref="B5"/>
-    <hyperlink r:id="rId6" ref="E5"/>
-    <hyperlink r:id="rId7" ref="B6"/>
-    <hyperlink r:id="rId8" ref="E6"/>
-    <hyperlink r:id="rId9" ref="B7"/>
-    <hyperlink r:id="rId10" ref="E7"/>
-    <hyperlink r:id="rId11" ref="B8"/>
-    <hyperlink r:id="rId12" ref="E8"/>
-    <hyperlink r:id="rId13" ref="B9"/>
-    <hyperlink r:id="rId14" ref="E9"/>
-    <hyperlink r:id="rId15" ref="B10"/>
-    <hyperlink r:id="rId16" ref="E10"/>
-    <hyperlink r:id="rId17" ref="B11"/>
-    <hyperlink r:id="rId18" ref="E11"/>
-    <hyperlink r:id="rId19" ref="E12"/>
-    <hyperlink r:id="rId20" ref="B14"/>
-    <hyperlink r:id="rId21" ref="E14"/>
-    <hyperlink r:id="rId22" ref="B15"/>
-    <hyperlink r:id="rId23" ref="E15"/>
-    <hyperlink r:id="rId24" ref="E16"/>
-    <hyperlink r:id="rId25" ref="B17"/>
-    <hyperlink r:id="rId26" ref="E17"/>
-    <hyperlink r:id="rId27" ref="B18"/>
-    <hyperlink r:id="rId28" ref="E18"/>
-    <hyperlink r:id="rId29" ref="B19"/>
-    <hyperlink r:id="rId30" ref="E19"/>
-    <hyperlink r:id="rId31" ref="B20"/>
-    <hyperlink r:id="rId32" ref="E20"/>
-    <hyperlink r:id="rId33" ref="B21"/>
-    <hyperlink r:id="rId34" ref="E21"/>
-    <hyperlink r:id="rId35" ref="B22"/>
-    <hyperlink r:id="rId36" ref="B23"/>
-    <hyperlink r:id="rId37" ref="E23"/>
-    <hyperlink r:id="rId38" ref="B24"/>
-    <hyperlink r:id="rId39" ref="E24"/>
-    <hyperlink r:id="rId40" ref="B25"/>
-    <hyperlink r:id="rId41" ref="B26"/>
-    <hyperlink r:id="rId42" ref="B27"/>
-    <hyperlink r:id="rId43" ref="E27"/>
-    <hyperlink r:id="rId44" ref="B28"/>
-    <hyperlink r:id="rId45" ref="B29"/>
-    <hyperlink r:id="rId46" ref="B30"/>
-    <hyperlink r:id="rId47" ref="E30"/>
-    <hyperlink r:id="rId48" ref="B31"/>
-    <hyperlink r:id="rId49" ref="B32"/>
-    <hyperlink r:id="rId50" ref="B33"/>
-    <hyperlink r:id="rId51" ref="E33"/>
-    <hyperlink r:id="rId52" ref="B34"/>
-    <hyperlink r:id="rId53" ref="E34"/>
-    <hyperlink r:id="rId54" ref="E35"/>
-    <hyperlink r:id="rId55" ref="E36"/>
-    <hyperlink r:id="rId56" ref="B37"/>
-    <hyperlink r:id="rId57" ref="B38"/>
-    <hyperlink r:id="rId58" ref="B39"/>
-    <hyperlink r:id="rId59" ref="B40"/>
-    <hyperlink r:id="rId60" ref="B42"/>
-    <hyperlink r:id="rId61" ref="B43"/>
-    <hyperlink r:id="rId62" ref="B44"/>
-  </hyperlinks>
-  <drawing r:id="rId63"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="232">
   <si>
     <t>Title</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Url</t>
   </si>
   <si>
-    <t>Nostr Publickey</t>
+    <t>Npub</t>
   </si>
   <si>
     <t>Desc</t>
@@ -34,24 +34,15 @@
     <t>Date</t>
   </si>
   <si>
-    <t>ジャンル１</t>
-  </si>
-  <si>
-    <t>ジャンル２</t>
-  </si>
-  <si>
-    <t>他キーワード</t>
-  </si>
-  <si>
-    <t>分類</t>
-  </si>
-  <si>
     <t>大分類</t>
   </si>
   <si>
     <t>小分類</t>
   </si>
   <si>
+    <t>技術・プラットフォーム</t>
+  </si>
+  <si>
     <t>@konemono/nostr-web-components</t>
   </si>
   <si>
@@ -67,19 +58,13 @@
     <t>Jul.2025</t>
   </si>
   <si>
-    <t>Nostr</t>
-  </si>
-  <si>
-    <t>WebComponentライブラリ</t>
-  </si>
-  <si>
-    <t>Svelte、 rx-nostr nostr-content-parser</t>
-  </si>
-  <si>
     <t>ライブラリ・コンポーネント</t>
   </si>
   <si>
     <t>Web Component</t>
+  </si>
+  <si>
+    <t>Nostr, Svelte, rx-nostr, Web Components</t>
   </si>
   <si>
     <t>@konemono/nostr-content-parser</t>
@@ -101,7 +86,7 @@
     <t>ライブラリ</t>
   </si>
   <si>
-    <t>Parser</t>
+    <t>Nostr, Parser</t>
   </si>
   <si>
     <t>@konemono/svelte5-i18n</t>
@@ -120,10 +105,7 @@
     <t>May.2025</t>
   </si>
   <si>
-    <t>i18n</t>
-  </si>
-  <si>
-    <t>i18n、 Svelte5</t>
+    <t>Svelte5, i18n</t>
   </si>
   <si>
     <t>Lumilumi</t>
@@ -141,16 +123,13 @@
     <t>Jun.2024 - 2025</t>
   </si>
   <si>
-    <t>WebApp</t>
-  </si>
-  <si>
-    <t>nostr、 svelte、 Svelte5、 sveltekit、 melt-ui、 typescript、 rx-nostr</t>
+    <t>アプリケーション</t>
   </si>
   <si>
     <t>Webアプリ</t>
   </si>
   <si>
-    <t>アプリケーション</t>
+    <t>Nostr, Svelte, Svelte5, SvelteKit, TypeScript, rx-nostr</t>
   </si>
   <si>
     <t>MAKIMONO</t>
@@ -165,10 +144,7 @@
     <t>https://github.com/TsukemonoGit/longFormEditor</t>
   </si>
   <si>
-    <t>May 2025</t>
-  </si>
-  <si>
-    <t>Skeleton、 Svelte5、 bytemd</t>
+    <t>Nostr, Skeleton, Svelte5, bytemd</t>
   </si>
   <si>
     <t>Nostr Follow Organizer</t>
@@ -186,7 +162,7 @@
     <t>Nov.2024</t>
   </si>
   <si>
-    <t>sveltejs、@konemono/svelte5-i18n、 @konemono/nostr-share-component</t>
+    <t>Nostr, Svelte, @konemono/svelte5-i18n</t>
   </si>
   <si>
     <t>@konemono/nostr-sharr-component</t>
@@ -201,10 +177,10 @@
     <t>https://github.com/TsukemonoGit/nostr-share-component</t>
   </si>
   <si>
-    <t>Feb , 2025</t>
-  </si>
-  <si>
-    <t>svelte</t>
+    <t>Feb.2025</t>
+  </si>
+  <si>
+    <t>Nostr, Svelte, Web Components</t>
   </si>
   <si>
     <t>Luminostr</t>
@@ -219,7 +195,7 @@
     <t>May.2024</t>
   </si>
   <si>
-    <t>nostr、 solidjs、 typescript、 SUID、 GithubPages</t>
+    <t>Nostr, SolidJS, TypeScript, GitHub Pages</t>
   </si>
   <si>
     <t>nostr-iroiro-bot</t>
@@ -237,18 +213,18 @@
     <t>https://github.com/TsukemonoGit/nostr-iroiro-bot</t>
   </si>
   <si>
-    <t>Feb , 2024</t>
+    <t>Feb.2024</t>
   </si>
   <si>
     <t>Bot</t>
   </si>
   <si>
-    <t>nostr、 bot、 raspberrypi、 GithubPages、 javascript、 Node.js、 cron</t>
-  </si>
-  <si>
     <t>自動投稿Bot</t>
   </si>
   <si>
+    <t>Nostr, Raspberry Pi, JavaScript, Node.js, GitHub Pages</t>
+  </si>
+  <si>
     <t>NAKE</t>
   </si>
   <si>
@@ -264,18 +240,12 @@
     <t>Jun.2024</t>
   </si>
   <si>
-    <t>WebExtention</t>
-  </si>
-  <si>
-    <t>nostr、 solidjs、 typescript、 WebExtension、 WXT</t>
-  </si>
-  <si>
-    <t>ブラウザ拡張</t>
-  </si>
-  <si>
     <t>拡張機能</t>
   </si>
   <si>
+    <t>Nostr, SolidJS, TypeScript, WebExtension, WXT</t>
+  </si>
+  <si>
     <t>random mdn docs bot</t>
   </si>
   <si>
@@ -288,10 +258,10 @@
     <t>https://github.com/TsukemonoGit/mdn_test</t>
   </si>
   <si>
-    <t>Apr , 2024</t>
-  </si>
-  <si>
-    <t>nostr、 bot、 python、 githubActions、 サブモジュール</t>
+    <t>Apr.2024</t>
+  </si>
+  <si>
+    <t>Nostr, Python, GitHub Actions</t>
   </si>
   <si>
     <t xml:space="preserve">React Reference Bot
@@ -304,9 +274,6 @@
     <t>reactのreference ( https://ja.react.dev/reference/react ) からランダムでポストするかもしれないbot</t>
   </si>
   <si>
-    <t>Apr, 2024</t>
-  </si>
-  <si>
     <t>Nostr Bookmark Recovery Tool</t>
   </si>
   <si>
@@ -319,7 +286,7 @@
     <t>https://github.com/TsukemonoGit/nos-bookmark-areyatu</t>
   </si>
   <si>
-    <t>solidjs、 SUID、 nostr、 typescript、 vercel</t>
+    <t>Nostr, SolidJS, TypeScript, Vercel</t>
   </si>
   <si>
     <t>profileを修正するやつ</t>
@@ -334,10 +301,10 @@
     <t>https://github.com/TsukemonoGit/nos-profile-arekore</t>
   </si>
   <si>
-    <t>Mar , 2024</t>
-  </si>
-  <si>
-    <t>solidjs、 bootstrap、 nostr、 typescript、 vercel</t>
+    <t>Mar.2024</t>
+  </si>
+  <si>
+    <t>Nostr, SolidJS, Bootstrap, TypeScript, Vercel</t>
   </si>
   <si>
     <t>fofo</t>
@@ -353,7 +320,7 @@
     <t>https://github.com/TsukemonoGit/fofo-weight</t>
   </si>
   <si>
-    <t>python、 raspberrypi、 nostr、 bot</t>
+    <t>Nostr, Python, Raspberry Pi, IoT</t>
   </si>
   <si>
     <t>NostViewstr(のすとびうあ)</t>
@@ -368,17 +335,10 @@
     <t>https://github.com/TsukemonoGit/NostViewstr</t>
   </si>
   <si>
-    <t>Nov , 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-      nostr、
-      svelte、
-      sveltekit、
-      skeletoncss、
-      typescript、
-      vercel、
-    </t>
+    <t>Nov.2023</t>
+  </si>
+  <si>
+    <t>Nostr, Svelte, SvelteKit, TypeScript, Vercel</t>
   </si>
   <si>
     <t>Nostr Note Duplicater</t>
@@ -393,10 +353,7 @@
     <t>https://github.com/TsukemonoGit/dupstr</t>
   </si>
   <si>
-    <t>Aug, 2023</t>
-  </si>
-  <si>
-    <t>nostr、 solidjs、 vercel、 typescript</t>
+    <t>Aug.2023</t>
   </si>
   <si>
     <t>ぶくまびうあ</t>
@@ -411,7 +368,7 @@
     <t>https://github.com/TsukemonoGit/nostr-bookmark-viewer3</t>
   </si>
   <si>
-    <t>Sep, 2023</t>
+    <t>Sep.2023</t>
   </si>
   <si>
     <t>nostr-monoGazo-bot</t>
@@ -429,21 +386,7 @@
     <t>https://github.com/TsukemonoGit/nostr-monoGazo-bot</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sep, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-      nostr、
-      bot、
-      raspberrypi、
-      solidjs、
-      GithubPages、
-      javascript、
-      typescript、
-      pandacss、
-      Node.js、
-      GoogleSheetsAPI、
-    </t>
+    <t>Nostr, Raspberry Pi, SolidJS, JavaScript, TypeScript, Node.js, Google Sheets API</t>
   </si>
   <si>
     <t>うちの温度と湿度と気圧Bot</t>
@@ -465,7 +408,7 @@
     <t>May.2023</t>
   </si>
   <si>
-    <t>Nostr、 bot、 M5 stack、 microPython</t>
+    <t>Nostr, M5Stack, microPython, IoT</t>
   </si>
   <si>
     <t>ぶろっくをわくにはめるやつ</t>
@@ -480,18 +423,15 @@
     <t>Jan.2023</t>
   </si>
   <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>Unity、 C#、 blender</t>
-  </si>
-  <si>
     <t>ゲーム</t>
   </si>
   <si>
     <t>Webゲーム</t>
   </si>
   <si>
+    <t>Unity, C#, Blender</t>
+  </si>
+  <si>
     <t>ぱたぱた</t>
   </si>
   <si>
@@ -507,9 +447,6 @@
     <t>Jun.2022</t>
   </si>
   <si>
-    <t>Unity、 C#、 blender、 パズロム</t>
-  </si>
-  <si>
     <t>りばーし</t>
   </si>
   <si>
@@ -525,9 +462,6 @@
     <t>Sep.2022</t>
   </si>
   <si>
-    <t>Unity、 C#、 blender、 online</t>
-  </si>
-  <si>
     <t>buatuihodogood</t>
   </si>
   <si>
@@ -540,9 +474,6 @@
     <t>Jul.2022</t>
   </si>
   <si>
-    <t>カシふぁん</t>
-  </si>
-  <si>
     <t>かしふぁん２</t>
   </si>
   <si>
@@ -576,13 +507,7 @@
     <t>マウスカーソルとしめじスキン</t>
   </si>
   <si>
-    <t>Aug. 2022</t>
-  </si>
-  <si>
-    <t>Cursor</t>
-  </si>
-  <si>
-    <t>cursor、 デスクトップマスコット</t>
+    <t>Aug.2022</t>
   </si>
   <si>
     <t>その他</t>
@@ -591,6 +516,9 @@
     <t>未分類</t>
   </si>
   <si>
+    <t>Cursor, デスクトップマスコット</t>
+  </si>
+  <si>
     <t>ふりせる</t>
   </si>
   <si>
@@ -603,7 +531,7 @@
     <t>Jan.2022</t>
   </si>
   <si>
-    <t>Unity、 C#</t>
+    <t>Unity, C#</t>
   </si>
   <si>
     <t>tohu</t>
@@ -621,9 +549,6 @@
     <t>Dec.2021</t>
   </si>
   <si>
-    <t>C#、 Unity、 パズロム</t>
-  </si>
-  <si>
     <t>そーとするやつ</t>
   </si>
   <si>
@@ -657,15 +582,12 @@
     <t>https://github.com/TsukemonoGit/Timer</t>
   </si>
   <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>C#</t>
-  </si>
-  <si>
     <t>ソフトウェア</t>
   </si>
   <si>
+    <t>C#, Windows</t>
+  </si>
+  <si>
     <t>最自由研究2022</t>
   </si>
   <si>
@@ -678,13 +600,13 @@
     <t>https://github.com/TsukemonoGit/Freest2022</t>
   </si>
   <si>
-    <t>Article</t>
+    <t>記事・出版物</t>
   </si>
   <si>
     <t>記事</t>
   </si>
   <si>
-    <t>記事・出版物</t>
+    <t>html</t>
   </si>
   <si>
     <t>NIPs Check Bot</t>
@@ -704,6 +626,9 @@
     <t>Mar.2025</t>
   </si>
   <si>
+    <t>Nostr, Python</t>
+  </si>
+  <si>
     <t>じほうちゃん</t>
   </si>
   <si>
@@ -730,7 +655,7 @@
     <t>技術書典17 もののツールたち</t>
   </si>
   <si>
-    <t>Nov. 2024</t>
+    <t>Nostr</t>
   </si>
   <si>
     <t>Enjoy 分散型SNS
@@ -745,9 +670,6 @@
 Nostrで助成金もらった話 税務署編</t>
   </si>
   <si>
-    <t>May. 2025</t>
-  </si>
-  <si>
     <t>Zenn</t>
   </si>
   <si>
@@ -755,6 +677,9 @@
   </si>
   <si>
     <t>Nostrでいろいろやった話とかの記事</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>アカウント</t>
@@ -853,16 +778,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1169,27 +1103,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="29.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="29.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="20.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1214,1476 +1145,1118 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="34.5">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33">
-      <c r="A3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="34.5">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33">
-      <c r="A4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
-      <c r="A5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
+      <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
+      <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
+      <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
-      <c r="A7" s="1" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
+      <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
-      <c r="A8" s="1" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
+      <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
-      <c r="A9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
-      <c r="A10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
+      <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
+      <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
+      <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
+      <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
-      <c r="A12" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
+      <c r="A15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
-      <c r="A13" s="1" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
+      <c r="A16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
+      <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
-      <c r="A16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="120">
-      <c r="A17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
       <c r="A18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="120">
       <c r="A19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="180">
       <c r="A20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="36">
       <c r="A21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21">
       <c r="A22" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21">
       <c r="A23" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>166</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>192</v>
+        <v>173</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>181</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>208</v>
+        <v>35</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>212</v>
+        <v>191</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>214</v>
+        <v>194</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B35" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="B35" s="4"/>
       <c r="C35" s="1" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>219</v>
+        <v>198</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B36" s="3"/>
+        <v>202</v>
+      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>224</v>
+        <v>204</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>207</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E37" s="3"/>
+        <v>209</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>214</v>
+        <v>194</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C38" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>214</v>
+        <v>194</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C39" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="G39" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="L39" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>219</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="G40" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="L40" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="3"/>
+        <v>210</v>
+      </c>
+      <c r="B41" s="4"/>
       <c r="C41" s="1" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="G41" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="L41" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+        <v>226</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="G42" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="L42" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C43" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="G43" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="L43" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C44" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+        <v>231</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
       <c r="G44" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="L44" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="236">
   <si>
     <t>Title</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>技術・プラットフォーム</t>
+  </si>
+  <si>
+    <t>Picture</t>
   </si>
   <si>
     <t>@konemono/nostr-web-components</t>
@@ -132,6 +135,9 @@
     <t>Nostr, Svelte, Svelte5, SvelteKit, TypeScript, rx-nostr</t>
   </si>
   <si>
+    <t>https://nostpic.com/media/cbcb0e0b602ec3a9adfc6956bfbe3e2bc12379ee13bf8505ce45f1c831d2e52a/419b9c108bea83bdbe5e4a17fd25f4bc401cfca547a49c1e99be2ebec8f5a203.webp</t>
+  </si>
+  <si>
     <t>MAKIMONO</t>
   </si>
   <si>
@@ -244,6 +250,9 @@
   </si>
   <si>
     <t>Nostr, SolidJS, TypeScript, WebExtension, WXT</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/TsukemonoGit/nake/main/contentsample.png</t>
   </si>
   <si>
     <t>random mdn docs bot</t>
@@ -588,6 +597,9 @@
     <t>C#, Windows</t>
   </si>
   <si>
+    <t>https://tsukemonogit.github.io/Timer/image1.png</t>
+  </si>
+  <si>
     <t>最自由研究2022</t>
   </si>
   <si>
@@ -607,6 +619,9 @@
   </si>
   <si>
     <t>html</t>
+  </si>
+  <si>
+    <t>https://tsukemonogit.github.io/Freest2022/images/logo2.png</t>
   </si>
   <si>
     <t>NIPs Check Bot</t>
@@ -677,9 +692,6 @@
   </si>
   <si>
     <t>Nostrでいろいろやった話とかの記事</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>アカウント</t>
@@ -729,7 +741,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +759,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000ff"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -778,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -789,11 +807,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1103,21 +1118,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="29.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="29.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="20.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -1148,1115 +1164,1159 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="34.5">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="34.5">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="J16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
+        <v>109</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="120">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="180">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="J20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="36">
       <c r="A21" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="J21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="J22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21">
       <c r="A23" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="J23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="J24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="J25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="J26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="J27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>165</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="J28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="J29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>170</v>
-      </c>
+      <c r="J30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="J31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="J32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="J35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="J36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="J37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="J38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="248">
   <si>
     <t>Title</t>
   </si>
@@ -76,7 +76,7 @@
     <t>デモのサイト公開するようにする？今のところサイト作ってないnpmサイトくらいしか</t>
   </si>
   <si>
-    <t>NostrのContentパーサー。:emoji:とかurlとかnostr:とかで分ける。
+    <t>NostrのContentパーサー。:emoji:とかurlとかnostr:とかで分ける
 npm install @konemono/nostr-content-parser</t>
   </si>
   <si>
@@ -132,7 +132,7 @@
     <t>Webアプリ</t>
   </si>
   <si>
-    <t>Nostr, Svelte, Svelte5, SvelteKit, TypeScript, rx-nostr</t>
+    <t>Nostr, Svelte, Svelte5, SvelteKit, TypeScript, rx-nostr, @konemono/nostr-content-parser, @konemono/svelte5-i18n</t>
   </si>
   <si>
     <t>https://nostpic.com/media/cbcb0e0b602ec3a9adfc6956bfbe3e2bc12379ee13bf8505ce45f1c831d2e52a/419b9c108bea83bdbe5e4a17fd25f4bc401cfca547a49c1e99be2ebec8f5a203.webp</t>
@@ -144,13 +144,13 @@
     <t>https://makimono.lumilumi.app/</t>
   </si>
   <si>
-    <t>Nostr Long-Form Content Editor NIP-23 マークダウン記事が書ける</t>
+    <t xml:space="preserve">マークダウン記事簡単に編集できる。Nostr Long-Form Content(NIP-23) のEditor </t>
   </si>
   <si>
     <t>https://github.com/TsukemonoGit/longFormEditor</t>
   </si>
   <si>
-    <t>Nostr, Skeleton, Svelte5, bytemd</t>
+    <t>Nostr, Skeleton, Svelte5, bytemd, @konemono/svelte5-i18n</t>
   </si>
   <si>
     <t>Nostr Follow Organizer</t>
@@ -195,7 +195,8 @@
     <t>https://tsukemonogit.github.io/luminostr/</t>
   </si>
   <si>
-    <t>特定のkindの置換可能（replaceable）イベントをいろんなリレーから探しだして、特定の時点でのイベントで上書きする（現在時刻で再書込みする）また、手持ちのローカルJSONファイルで上書きする バックアップツール</t>
+    <t>フォローリストが飛んだ時、リレーリストが上書きされたとき、プロフィールが消えたとき、などなどにお役立ち
+特定のkindの置換可能（replaceable,addressable）イベントをいろんなリレーから探しだして、特定の時点でのイベントで上書きする（現在時刻で再書込みする）また、手持ちのローカルJSONファイルで上書きする バックアップツール</t>
   </si>
   <si>
     <t>May.2024</t>
@@ -261,7 +262,7 @@
     <t>npub1fuffhzfv7xdrm5htde4mp9e5n6ywn763cq6mzxtetyqvsg66kkasp9zzyz</t>
   </si>
   <si>
-    <t>https://developer.mozilla.org/ja/docs/Web のサイトからランダムのページを一定時間間隔でNostrにポスト</t>
+    <t>MDN のサイトからランダムのページを一定時間間隔でNostrにポスト</t>
   </si>
   <si>
     <t>https://github.com/TsukemonoGit/mdn_test</t>
@@ -280,7 +281,7 @@
     <t>npub1cktfz62n0gf098mq7c4np4g35s6ex42p30ae5ar8d2w32zd24kdqa3j6m7</t>
   </si>
   <si>
-    <t>reactのreference ( https://ja.react.dev/reference/react ) からランダムでポストするかもしれないbot</t>
+    <t>reactのreferenceからランダムでポストするbot</t>
   </si>
   <si>
     <t>Nostr Bookmark Recovery Tool</t>
@@ -322,8 +323,8 @@
     <t>npub1m054537ssdkqx84va8cv9tankxeestqxk8v95gdvxpwj7n69fslqx4wn3w</t>
   </si>
   <si>
-    <t xml:space="preserve">アルフォートを食べすぎてしまうのを防止するために、食べた個数を10分毎にチェックしてNostrに投稿するBot\nロードセル（5 kg）+ HX711 \nカゴは余ってたエコクラフトで手作り\nボタンとLEDと7セグメントLEDもつけてみた,
-</t>
+    <t>アルフォートを食べすぎてしまうのを防止するために、食べた個数を10分毎にチェックしてNostrに投稿するBot
+ロードセル（5 kg）+ HX711 \nカゴは余ってたエコクラフトで手作り。ボタンとLEDと7セグメントLEDもつけてみた</t>
   </si>
   <si>
     <t>https://github.com/TsukemonoGit/fofo-weight</t>
@@ -338,7 +339,8 @@
     <t>https://nostviewstr.vercel.app/</t>
   </si>
   <si>
-    <t>Nostr上の様々なデータを閲覧、編集できるアプリ\nモバイル通信環境のために、画像非表示などの通信量を節約できる設定がある</t>
+    <t>Nostr上の様々なデータを閲覧、編集できるアプリ
+モバイル通信環境のために、画像非表示などの通信量を節約できる設定がある</t>
   </si>
   <si>
     <t>https://github.com/TsukemonoGit/NostViewstr</t>
@@ -389,26 +391,29 @@
     <t>npub1lxrlhyrfdl9sjdvx9xhwhag4d6s95sz3q8z09kgzp0cz73l2ffys9p726u</t>
   </si>
   <si>
-    <t>Nostrに投稿された もの ₍ ･ᴗ･ ₎ のイラストとか、₍ ･ᴗ･ ₎ っぽい写真つきの投稿を収集して、特定のワードに反応して画像を投稿したりするBot\nついでにサイトも作成\nNostrをやっていない人にも雰囲気を伝えるために、実際のNostrのポストも表示している。特定のブックマークに追加された画像を検知してもの画像に追加する機能も追加。</t>
+    <t>Nostrに投稿された もの ₍ ･ᴗ･ ₎ のイラストとか、₍ ･ᴗ･ ₎ っぽい写真つきの投稿を収集して、特定のワードに反応して画像を投稿したりするBot
+ついでにサイトも作成
+Nostrをやっていない人にも雰囲気を伝えるために、実際のNostrのポストも表示している
+特定のブックマークに追加された画像を検知してもの画像に追加する機能も追加。</t>
   </si>
   <si>
     <t>https://github.com/TsukemonoGit/nostr-monoGazo-bot</t>
   </si>
   <si>
-    <t>Nostr, Raspberry Pi, SolidJS, JavaScript, TypeScript, Node.js, Google Sheets API</t>
+    <t>Nostr, Raspberry Pi, SolidJS, JavaScript, TypeScript, Node.js, Google Sheets API, @konemono/nostr-web-components</t>
   </si>
   <si>
     <t>うちの温度と湿度と気圧Bot</t>
   </si>
   <si>
-    <t>https://tsukemonogit.github.io/M5MyRoomNostr/</t>
+    <t>https://zenn.dev/konemono/articles/4fafb0d14ffcbd</t>
   </si>
   <si>
     <t>npub1sm73eqxq0h4mc0ge9ymhkfx5haj6skhjdzh3tndz4n8y2n0kwzlq57nl7v</t>
   </si>
   <si>
-    <t>M5Stack Core2 と 温湿度気圧センサーユニット を使って、部屋の温湿度気圧情報をNostrに一時間おきに投稿するBot\n公開されるため、温度の上げ過ぎ下げすぎに気をつけることができる。
-https://zenn.dev/konemono/articles/4fafb0d14ffcbd 記事も書いた</t>
+    <t>M5Stack Core2 と 温湿度気圧センサーユニット を使って、部屋の温湿度気圧情報をNostrに一時間おきに投稿するBot
+公開されるため、温度の上げ過ぎ下げすぎに気をつけることができる。</t>
   </si>
   <si>
     <t>https://github.com/TsukemonoGit/M5MyRoomNostr</t>
@@ -426,7 +431,10 @@
     <t>https://unityroom.com/games/pu</t>
   </si>
   <si>
-    <t>ブロックを枠にはめるゲーム\nこういうゲームの配信をしているところを見て作ってみた\nブロックの立体感を出すためにblenderで素材を作成\n出口（ドア）は手書き</t>
+    <t>ブロックを枠にはめるゲーム
+こういうゲームの配信をしているところを見て作ってみた
+ブロックの立体感を出すためにblenderで素材を作成
+出口（ドア）は手書き</t>
   </si>
   <si>
     <t>Jan.2023</t>
@@ -441,13 +449,18 @@
     <t>Unity, C#, Blender</t>
   </si>
   <si>
+    <t>https://object-storage.tyo1.conoha.io/v1/nc_df3bdbc45bc04950b558834f5728517a/unityroom_production/icon/38484/icon_20221231_194559.png</t>
+  </si>
+  <si>
     <t>ぱたぱた</t>
   </si>
   <si>
     <t>https://unityroom.com/games/ptpt</t>
   </si>
   <si>
-    <t>ライツアウトのようなゲーム\nパズロムという雑誌に収録されていた ぱたぱた というゲームをUnityで再現し、アレンジを加えたもの\nブロックの立体感を出すためにblenderで素材を作成</t>
+    <t>ライツアウトのようなゲーム
+パズロムという雑誌に収録されていた「ぱたぱた」というゲームをUnityで再現し、アレンジを加えたもの
+ブロックの立体感を出すためにblenderで素材を作成</t>
   </si>
   <si>
     <t>https://github.com/TsukemonoGit/patapata</t>
@@ -456,13 +469,17 @@
     <t>Jun.2022</t>
   </si>
   <si>
+    <t>https://object-storage.tyo1.conoha.io/v1/nc_df3bdbc45bc04950b558834f5728517a/unityroom_production/icon/32194/icon_20220606_164822.png</t>
+  </si>
+  <si>
     <t>りばーし</t>
   </si>
   <si>
     <t>https://unityroom.com/games/onlineothelloo</t>
   </si>
   <si>
-    <t>オンライン対戦できるリバーシ\n制限時間を設定することができ、制限時間を過ぎると適当な場所に勝手に置かれるようになっている</t>
+    <t>オンライン対戦できるリバーシ
+制限時間を設定することができ、制限時間を過ぎると適当な場所に勝手に置かれるようになっている</t>
   </si>
   <si>
     <t>https://github.com/TsukemonoGit/OthelloOnline</t>
@@ -471,42 +488,59 @@
     <t>Sep.2022</t>
   </si>
   <si>
+    <t>https://object-storage.tyo1.conoha.io/v1/nc_df3bdbc45bc04950b558834f5728517a/unityroom_production/icon/31756/icon_20220512_142008.png</t>
+  </si>
+  <si>
     <t>buatuihodogood</t>
   </si>
   <si>
     <t>https://unityroom.com/games/buatuihodogood</t>
   </si>
   <si>
-    <t>とある分厚い机で配信をしている方をリスペクトしたクリックゲーム\n一部キャラクター、素材はblenderで自作</t>
+    <t>とある分厚い机で配信をしている方をリスペクトしたクリックゲーム
+一部キャラクター、素材はblenderで自作</t>
   </si>
   <si>
     <t>Jul.2022</t>
   </si>
   <si>
+    <t>https://object-storage.tyo1.conoha.io/v1/nc_df3bdbc45bc04950b558834f5728517a/unityroom_production/icon/30651/icon_20220407_110614.png</t>
+  </si>
+  <si>
     <t>かしふぁん２</t>
   </si>
   <si>
     <t>https://unityroom.com/games/kashifan2</t>
   </si>
   <si>
-    <t>とある分厚い机で配信をしている方をリスペクトした横スクロールゲーム\n途中まで\nキャラクター、素材はblenderで自作</t>
+    <t>とある分厚い机で配信をしている方をリスペクトした横スクロールゲーム
+途中まで
+キャラクター、素材はblenderで自作</t>
   </si>
   <si>
     <t>Mar.2022</t>
   </si>
   <si>
+    <t>https://object-storage.tyo1.conoha.io/v1/nc_df3bdbc45bc04950b558834f5728517a/unityroom_production/icon/30360/icon_20220331_172959.png</t>
+  </si>
+  <si>
     <t>カシファン</t>
   </si>
   <si>
     <t>https://unityroom.com/games/fancolle</t>
   </si>
   <si>
-    <t>とある分厚い机で配信をしている方をリスペクトした3Dゲーム\nキャラクター、素材はblenderで自作\nデータをぶっ飛ばしながら作成し、gitに手を出しはじめた頃</t>
+    <t>とある分厚い机で配信をしている方をリスペクトした3Dゲーム
+キャラクター、素材はblenderで自作
+データをぶっ飛ばしながら作成し、gitに手を出しはじめた頃</t>
   </si>
   <si>
     <t>https://github.com/TsukemonoGit/wakeUpVer2</t>
   </si>
   <si>
+    <t>https://object-storage.tyo1.conoha.io/v1/nc_df3bdbc45bc04950b558834f5728517a/unityroom_production/icon/30159/icon_20220324_103328.png</t>
+  </si>
+  <si>
     <t>ファンズっちWindowsマウスカーソル等</t>
   </si>
   <si>
@@ -528,6 +562,9 @@
     <t>Cursor, デスクトップマスコット</t>
   </si>
   <si>
+    <t>https://tsukemonogit.github.io/Freest2022/images/cursor_view/fanz_wait3.gif</t>
+  </si>
+  <si>
     <t>ふりせる</t>
   </si>
   <si>
@@ -543,13 +580,18 @@
     <t>Unity, C#</t>
   </si>
   <si>
+    <t>https://object-storage.tyo1.conoha.io/v1/nc_df3bdbc45bc04950b558834f5728517a/unityroom_production/icon/30157/icon_20220320_212709.png</t>
+  </si>
+  <si>
     <t>tohu</t>
   </si>
   <si>
     <t>https://unityroom.com/games/tohu</t>
   </si>
   <si>
-    <t>パズロムという雑誌に収録されていた スクールユミちゃん というゲームをUnityで再現したもの\n元はパソコンゲームだが、スマホでもプレイできるようにボタンを設置\n素材はほぼほぼExcelで作成</t>
+    <t>パズロムという雑誌に収録されていた スクールユミちゃん というゲームをUnityで再現したもの
+元はパソコンゲームだが、スマホでもプレイできるようにボタンを設置
+素材はほぼほぼExcelで作成</t>
   </si>
   <si>
     <t>https://github.com/TsukemonoGit/scym</t>
@@ -558,6 +600,9 @@
     <t>Dec.2021</t>
   </si>
   <si>
+    <t>https://object-storage.tyo1.conoha.io/v1/nc_df3bdbc45bc04950b558834f5728517a/unityroom_production/icon/51230/icon_20230730_144513.png</t>
+  </si>
+  <si>
     <t>そーとするやつ</t>
   </si>
   <si>
@@ -567,18 +612,26 @@
     <t>スマホゲームストアでよく見るゲーム</t>
   </si>
   <si>
+    <t>https://object-storage.tyo1.conoha.io/v1/nc_df3bdbc45bc04950b558834f5728517a/unityroom_production/icon/30237/icon_20220320_211334.png</t>
+  </si>
+  <si>
     <t>てとりす</t>
   </si>
   <si>
     <t>https://unityroom.com/games/teto</t>
   </si>
   <si>
-    <t>初めてUnityで作ったゲーム\nテトラ以外のミノも設定できる\nホールドもできる</t>
+    <t>初めてUnityで作ったゲーム
+テトラ以外のミノも設定できる
+ホールドもできる</t>
   </si>
   <si>
     <t>Oct.2021</t>
   </si>
   <si>
+    <t>https://object-storage.tyo1.conoha.io/v1/nc_df3bdbc45bc04950b558834f5728517a/unityroom_production/icon/30756/icon_20220412_015457.png</t>
+  </si>
+  <si>
     <t>MyTimer</t>
   </si>
   <si>
@@ -606,7 +659,7 @@
     <t>https://tsukemonogit.github.io/Freest2022/</t>
   </si>
   <si>
-    <t>ゲームとカーソル倒錯性で提出 アーカイブはこちらのどこか→（https://youtube.com/playlist?list=PLYzId9nzefaYBC1PHHOPGfuH84qd44bjb） https://kashiwooo.wixsite.com/reserch</t>
+    <t>ゲームとカーソルなど作成したことを提出</t>
   </si>
   <si>
     <t>https://github.com/TsukemonoGit/Freest2022</t>
@@ -667,10 +720,14 @@
     <t>https://books.428lab.net/book/004/</t>
   </si>
   <si>
-    <t>技術書典17 もののツールたち</t>
+    <t>技術書典17 もののツールたち
+Nostrで作ったいろいろなツールについての記事を書きました。</t>
   </si>
   <si>
     <t>Nostr</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Enjoy 分散型SNS
@@ -682,7 +739,8 @@
   <si>
     <t>技術書典18
 Nostrで助成金もらった話 申請編
-Nostrで助成金もらった話 税務署編</t>
+Nostrで助成金もらった話 税務署編
+Nostrアドベントカレンダーで書いていた記事を書典用に加筆修正しました。</t>
   </si>
   <si>
     <t>Zenn</t>
@@ -796,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -809,6 +867,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1124,16 +1185,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="29.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="29.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="234.4335714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="46.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="59.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="20.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -1366,7 +1427,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="47.25">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -1564,7 +1625,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="42.75">
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
@@ -1592,7 +1653,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="48">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -1648,7 +1709,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="120">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="48">
       <c r="A19" s="1" t="s">
         <v>115</v>
       </c>
@@ -1676,7 +1737,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="180">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="122.25">
       <c r="A20" s="1" t="s">
         <v>120</v>
       </c>
@@ -1736,7 +1797,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="58.5">
       <c r="A22" s="1" t="s">
         <v>133</v>
       </c>
@@ -1760,24 +1821,26 @@
       <c r="I22" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21">
+      <c r="J22" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="47.25">
       <c r="A23" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>137</v>
@@ -1788,24 +1851,26 @@
       <c r="I23" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="J23" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="36">
       <c r="A24" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>137</v>
@@ -1816,22 +1881,24 @@
       <c r="I24" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="J24" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="39">
       <c r="A25" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>137</v>
@@ -1842,22 +1909,24 @@
       <c r="I25" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="J25" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="53.25">
       <c r="A26" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>137</v>
@@ -1868,24 +1937,26 @@
       <c r="I26" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="J26" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="42.75">
       <c r="A27" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>137</v>
@@ -1896,48 +1967,52 @@
       <c r="I27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J28" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>137</v>
@@ -1946,26 +2021,28 @@
         <v>138</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+        <v>180</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="42">
       <c r="A30" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>137</v>
@@ -1974,24 +2051,26 @@
         <v>138</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J30" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>137</v>
@@ -2000,24 +2079,26 @@
         <v>138</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+        <v>180</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="48">
       <c r="A32" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>137</v>
@@ -2026,86 +2107,88 @@
         <v>138</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J32" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>68</v>
@@ -2114,26 +2197,26 @@
         <v>69</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="42">
       <c r="A36" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>68</v>
@@ -2142,77 +2225,81 @@
         <v>69</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="40.5">
       <c r="A37" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+        <v>226</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="71.25">
       <c r="A38" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+        <v>226</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24">
       <c r="A39" s="1" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2220,19 +2307,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="1" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -2240,19 +2327,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="1" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2260,19 +2347,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="1" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2280,19 +2367,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="1" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2300,19 +2387,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="1" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>

--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="250">
   <si>
     <t>Title</t>
   </si>
@@ -153,6 +153,9 @@
     <t>Nostr, Skeleton, Svelte5, bytemd, @konemono/svelte5-i18n</t>
   </si>
   <si>
+    <t>https://raw.githubusercontent.com/TsukemonoGit/longFormEditor/refs/heads/main/static/favicon.png</t>
+  </si>
+  <si>
     <t>Nostr Follow Organizer</t>
   </si>
   <si>
@@ -205,6 +208,9 @@
     <t>Nostr, SolidJS, TypeScript, GitHub Pages</t>
   </si>
   <si>
+    <t>https://raw.githubusercontent.com/TsukemonoGit/luminostr/e8a747d794dd614adbacf5a81c4b882094c2426d/public/favicon.svg</t>
+  </si>
+  <si>
     <t>nostr-iroiro-bot</t>
   </si>
   <si>
@@ -350,6 +356,9 @@
   </si>
   <si>
     <t>Nostr, Svelte, SvelteKit, TypeScript, Vercel</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/TsukemonoGit/NostViewstr/refs/heads/main/static/favicon.png</t>
   </si>
   <si>
     <t>Nostr Note Duplicater</t>
@@ -725,9 +734,6 @@
   </si>
   <si>
     <t>Nostr</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Enjoy 分散型SNS
@@ -822,7 +828,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -854,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -867,9 +873,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1185,16 +1188,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="29.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="234.4335714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="46.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="59.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="29.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="234.4335714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="46.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="59.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="20.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -1369,24 +1372,26 @@
       <c r="I6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>36</v>
@@ -1395,26 +1400,26 @@
         <v>37</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>15</v>
@@ -1423,26 +1428,26 @@
         <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="47.25">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>36</v>
@@ -1451,140 +1456,142 @@
         <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>36</v>
@@ -1593,26 +1600,26 @@
         <v>37</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>36</v>
@@ -1621,54 +1628,54 @@
         <v>37</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="42.75">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="48">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>36</v>
@@ -1677,26 +1684,28 @@
         <v>37</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>36</v>
@@ -1705,26 +1714,26 @@
         <v>37</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="48">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>36</v>
@@ -1733,673 +1742,669 @@
         <v>37</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="122.25">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="36">
       <c r="A21" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="58.5">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="47.25">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="36">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="39">
       <c r="A25" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="53.25">
       <c r="A26" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="42.75">
       <c r="A27" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="42">
       <c r="A30" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="48">
+        <v>194</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="53.25">
       <c r="A32" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+        <v>199</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21.75">
       <c r="A33" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+        <v>206</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21.75">
       <c r="A34" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+        <v>214</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="37.5">
       <c r="A35" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="42">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="37.5">
       <c r="A36" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="J36" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="40.5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="37.5">
       <c r="A37" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="71.25">
+        <v>229</v>
+      </c>
+      <c r="J37" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="69">
       <c r="A38" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24">
+        <v>229</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="21.75">
       <c r="A39" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="21.75">
       <c r="A40" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="21.75">
       <c r="A41" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="21.75">
       <c r="A42" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="21.75">
       <c r="A43" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="21.75">
       <c r="A44" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>

--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="251">
   <si>
     <t>Title</t>
   </si>
@@ -200,6 +200,9 @@
   <si>
     <t>フォローリストが飛んだ時、リレーリストが上書きされたとき、プロフィールが消えたとき、などなどにお役立ち
 特定のkindの置換可能（replaceable,addressable）イベントをいろんなリレーから探しだして、特定の時点でのイベントで上書きする（現在時刻で再書込みする）また、手持ちのローカルJSONファイルで上書きする バックアップツール</t>
+  </si>
+  <si>
+    <t>https://github.com/TsukemonoGit/luminostr</t>
   </si>
   <si>
     <t>May.2024</t>
@@ -1444,10 +1447,10 @@
         <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>36</v>
@@ -1456,142 +1459,142 @@
         <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>36</v>
@@ -1600,26 +1603,26 @@
         <v>37</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>36</v>
@@ -1628,54 +1631,54 @@
         <v>37</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="42.75">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="48">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>36</v>
@@ -1684,28 +1687,28 @@
         <v>37</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>36</v>
@@ -1714,26 +1717,26 @@
         <v>37</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="48">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>36</v>
@@ -1742,569 +1745,569 @@
         <v>37</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="122.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="71.25">
       <c r="A20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="37.5">
+      <c r="A21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="36">
-      <c r="A21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="58.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="69">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="47.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="53.25">
       <c r="A23" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="36">
+        <v>150</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="37.5">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="39">
+        <v>156</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="37.5">
       <c r="A25" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="53.25">
       <c r="A26" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="42.75">
       <c r="A27" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="42">
       <c r="A30" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="53.25">
       <c r="A32" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21.75">
       <c r="A33" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21.75">
       <c r="A34" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="37.5">
       <c r="A35" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="37.5">
       <c r="A36" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="37.5">
       <c r="A37" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="69">
       <c r="A38" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="21.75">
       <c r="A39" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2312,19 +2315,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="21.75">
       <c r="A40" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -2332,19 +2335,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="21.75">
       <c r="A41" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2352,19 +2355,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="21.75">
       <c r="A42" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2372,19 +2375,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="21.75">
       <c r="A43" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2392,19 +2395,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="21.75">
       <c r="A44" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>

--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -1435,7 +1435,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="47.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="37.5">
       <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="42.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="37.5">
       <c r="A16" s="1" t="s">
         <v>102</v>
       </c>

--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -379,10 +379,10 @@
     <t>Aug.2023</t>
   </si>
   <si>
-    <t>ぶくまびうあ</t>
-  </si>
-  <si>
-    <t>https://nostr-bookmark-viewer3.vercel.app/</t>
+    <t>Shosai</t>
+  </si>
+  <si>
+    <t>https://shosai.lumilumi.app/</t>
   </si>
   <si>
     <t>のすとびうあでもブックマークの閲覧編集はできるが、Bookmarkはkindが複数存在するため、ブックマーク関連のkindを集めてぶくまびうあとした。</t>
@@ -1192,7 +1192,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="5" width="29.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="32.57642857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="234.4335714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="46.57642857142857" customWidth="1" bestFit="1"/>

--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="252">
   <si>
     <t>Title</t>
   </si>
@@ -391,7 +391,7 @@
     <t>https://github.com/TsukemonoGit/nostr-bookmark-viewer3</t>
   </si>
   <si>
-    <t>Sep.2023</t>
+    <t>Sep.2025</t>
   </si>
   <si>
     <t>nostr-monoGazo-bot</t>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>https://github.com/TsukemonoGit/nostr-monoGazo-bot</t>
+  </si>
+  <si>
+    <t>Sep.2023</t>
   </si>
   <si>
     <t>Nostr, Raspberry Pi, SolidJS, JavaScript, TypeScript, Node.js, Google Sheets API, @konemono/nostr-web-components</t>
@@ -1766,7 +1769,7 @@
         <v>128</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>71</v>
@@ -1775,28 +1778,28 @@
         <v>72</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="37.5">
       <c r="A21" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>71</v>
@@ -1805,402 +1808,402 @@
         <v>72</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="69">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="53.25">
       <c r="A23" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="37.5">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="37.5">
       <c r="A25" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="53.25">
       <c r="A26" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="42.75">
       <c r="A27" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="42">
       <c r="A30" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="53.25">
       <c r="A32" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21.75">
       <c r="A33" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21.75">
       <c r="A34" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="37.5">
       <c r="A35" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>71</v>
@@ -2209,26 +2212,26 @@
         <v>72</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="37.5">
       <c r="A36" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>71</v>
@@ -2237,77 +2240,77 @@
         <v>72</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="37.5">
       <c r="A37" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="69">
       <c r="A38" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="21.75">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2315,19 +2318,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="21.75">
       <c r="A40" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -2335,19 +2338,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="21.75">
       <c r="A41" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2355,19 +2358,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="21.75">
       <c r="A42" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2375,19 +2378,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="21.75">
       <c r="A43" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2395,19 +2398,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="21.75">
       <c r="A44" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>

--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -391,7 +391,7 @@
     <t>https://github.com/TsukemonoGit/nostr-bookmark-viewer3</t>
   </si>
   <si>
-    <t>Sep.2025</t>
+    <t>Aug.2025</t>
   </si>
   <si>
     <t>nostr-monoGazo-bot</t>
@@ -736,7 +736,8 @@
   </si>
   <si>
     <t>技術書典17 もののツールたち
-Nostrで作ったいろいろなツールについての記事を書きました。</t>
+Nostrで作ったいろいろなツールについての記事を書きました。
+[国立図書館にもあります](https://ndlsearch.ndl.go.jp/books/R100000002-I033846902)。</t>
   </si>
   <si>
     <t>Nostr</t>
@@ -749,10 +750,10 @@
     <t>https://books.428lab.net/book/005/</t>
   </si>
   <si>
-    <t>技術書典18
-Nostrで助成金もらった話 申請編
-Nostrで助成金もらった話 税務署編
-Nostrアドベントカレンダーで書いていた記事を書典用に加筆修正しました。</t>
+    <t xml:space="preserve">技術書典18
+Nostrアドベントカレンダーで書いていた以下の記事を書典用に加筆修正しました。
+ [OpenSats 申請編](https://zenn.dev/konemono/articles/cb39fb7f302551), [OpenSats 税務署編](https://zenn.dev/konemono/articles/b4087655d8da8b)
+</t>
   </si>
   <si>
     <t>Zenn</t>
@@ -1197,8 +1198,8 @@
     <col min="1" max="1" style="5" width="29.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="32.57642857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="234.4335714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="46.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="79.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="41.86214285714286" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -1666,7 +1667,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="48">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="37.5">
       <c r="A17" s="1" t="s">
         <v>107</v>
       </c>
@@ -2244,7 +2245,7 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="37.5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="54.75">
       <c r="A37" s="1" t="s">
         <v>228</v>
       </c>

--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -388,7 +388,7 @@
     <t>のすとびうあでもブックマークの閲覧編集はできるが、Bookmarkはkindが複数存在するため、ブックマーク関連のkindを集めてぶくまびうあとした。</t>
   </si>
   <si>
-    <t>https://github.com/TsukemonoGit/nostr-bookmark-viewer3</t>
+    <t>https://github.com/TsukemonoGit/nostr-bookmark-viewer5</t>
   </si>
   <si>
     <t>Aug.2025</t>
@@ -1199,7 +1199,7 @@
     <col min="2" max="2" style="5" width="32.57642857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="79.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="41.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="53.43357142857143" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
